--- a/backend/overtime_data.xlsx
+++ b/backend/overtime_data.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="overtime_data" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
   </si>
@@ -30,6 +29,21 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>2022-08-01T05:00:43.000Z</t>
+  </si>
+  <si>
+    <t>2022-08-12T05:01:43.000Z</t>
+  </si>
+  <si>
+    <t>Jafar</t>
+  </si>
+  <si>
+    <t>AD</t>
   </si>
 </sst>
 </file>
@@ -338,16 +352,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -366,6 +370,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>